--- a/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
+++ b/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\crm\data\ csv\physicalAreas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\crm\data\physicalAreas\PhysicalAreas\revisar\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6229,7 +6229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D46"/>
     </sheetView>
   </sheetViews>

--- a/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
+++ b/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="584">
   <si>
     <t>name</t>
   </si>
@@ -1740,6 +1740,48 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>PR-2</t>
+  </si>
+  <si>
+    <t>PR-1</t>
+  </si>
+  <si>
+    <t>GI-?</t>
+  </si>
+  <si>
+    <t>BOD-D1</t>
+  </si>
+  <si>
+    <t>BOD-D1(10)</t>
+  </si>
+  <si>
+    <t>GE(8)</t>
+  </si>
+  <si>
+    <t>COOR2</t>
+  </si>
+  <si>
+    <t>COOR2(8)</t>
+  </si>
+  <si>
+    <t>PR-2(8)</t>
+  </si>
+  <si>
+    <t>PR-1(2)</t>
+  </si>
+  <si>
+    <t>GI(8)</t>
+  </si>
+  <si>
+    <t>SWITCHES</t>
   </si>
 </sst>
 </file>
@@ -6227,10 +6269,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6238,12 +6280,12 @@
     <col min="1" max="1" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6256,8 +6298,11 @@
       <c r="D2" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>451</v>
       </c>
@@ -6270,8 +6315,11 @@
       <c r="D3" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>455</v>
       </c>
@@ -6284,8 +6332,11 @@
       <c r="D4" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
@@ -6298,8 +6349,11 @@
       <c r="D5" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>454</v>
       </c>
@@ -6312,8 +6366,11 @@
       <c r="D6" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
@@ -6326,8 +6383,11 @@
       <c r="D7" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
@@ -6340,8 +6400,11 @@
       <c r="D8" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>448</v>
       </c>
@@ -6354,8 +6417,11 @@
       <c r="D9" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>449</v>
       </c>
@@ -6368,8 +6434,11 @@
       <c r="D10" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>450</v>
       </c>
@@ -6382,8 +6451,11 @@
       <c r="D11" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>463</v>
       </c>
@@ -6396,8 +6468,11 @@
       <c r="D12" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>464</v>
       </c>
@@ -6410,8 +6485,11 @@
       <c r="D13" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>465</v>
       </c>
@@ -6424,8 +6502,11 @@
       <c r="D14" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6438,8 +6519,11 @@
       <c r="D15" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>461</v>
       </c>
@@ -6452,8 +6536,11 @@
       <c r="D16" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>460</v>
       </c>
@@ -6466,8 +6553,11 @@
       <c r="D17" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>452</v>
       </c>
@@ -6480,8 +6570,11 @@
       <c r="D18" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>459</v>
       </c>
@@ -6494,8 +6587,11 @@
       <c r="D19" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>453</v>
       </c>
@@ -6508,8 +6604,11 @@
       <c r="D20" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>384</v>
       </c>
@@ -6522,8 +6621,11 @@
       <c r="D21" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>471</v>
       </c>
@@ -6536,8 +6638,11 @@
       <c r="D22" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>472</v>
       </c>
@@ -6550,8 +6655,11 @@
       <c r="D23" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>473</v>
       </c>
@@ -6564,8 +6672,11 @@
       <c r="D24" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>372</v>
       </c>
@@ -6578,8 +6689,11 @@
       <c r="D25" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>373</v>
       </c>
@@ -6592,8 +6706,11 @@
       <c r="D26" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>374</v>
       </c>
@@ -6606,8 +6723,11 @@
       <c r="D27" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>375</v>
       </c>
@@ -6620,8 +6740,11 @@
       <c r="D28" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>474</v>
       </c>
@@ -6634,8 +6757,11 @@
       <c r="D29" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>475</v>
       </c>
@@ -6648,8 +6774,11 @@
       <c r="D30" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>478</v>
       </c>
@@ -6662,8 +6791,11 @@
       <c r="D31" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>476</v>
       </c>
@@ -6676,8 +6808,11 @@
       <c r="D32" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>477</v>
       </c>
@@ -6690,8 +6825,11 @@
       <c r="D33" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>385</v>
       </c>
@@ -6704,8 +6842,11 @@
       <c r="D34" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>386</v>
       </c>
@@ -6718,8 +6859,11 @@
       <c r="D35" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>470</v>
       </c>
@@ -6732,8 +6876,11 @@
       <c r="D36" s="4" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>485</v>
       </c>
@@ -6746,8 +6893,11 @@
       <c r="D37" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>457</v>
       </c>
@@ -6760,8 +6910,11 @@
       <c r="D38" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>479</v>
       </c>
@@ -6774,8 +6927,11 @@
       <c r="D39" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>480</v>
       </c>
@@ -6788,8 +6944,11 @@
       <c r="D40" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>481</v>
       </c>
@@ -6802,8 +6961,11 @@
       <c r="D41" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>482</v>
       </c>
@@ -6816,8 +6978,11 @@
       <c r="D42" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>483</v>
       </c>
@@ -6830,8 +6995,11 @@
       <c r="D43" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>484</v>
       </c>
@@ -6844,8 +7012,11 @@
       <c r="D44" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>486</v>
       </c>
@@ -6858,8 +7029,11 @@
       <c r="D45" s="4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>487</v>
       </c>
@@ -6871,6 +7045,9 @@
       </c>
       <c r="D46" s="4" t="s">
         <v>569</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
+++ b/crm/data/physicalAreas/PhysicalAreas/revisar/PhysicalAreas.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="601">
   <si>
     <t>name</t>
   </si>
@@ -1748,40 +1748,91 @@
     <t>GE</t>
   </si>
   <si>
-    <t>PR-2</t>
-  </si>
-  <si>
-    <t>PR-1</t>
-  </si>
-  <si>
-    <t>GI-?</t>
-  </si>
-  <si>
-    <t>BOD-D1</t>
-  </si>
-  <si>
-    <t>BOD-D1(10)</t>
-  </si>
-  <si>
     <t>GE(8)</t>
   </si>
   <si>
-    <t>COOR2</t>
-  </si>
-  <si>
-    <t>COOR2(8)</t>
-  </si>
-  <si>
-    <t>PR-2(8)</t>
-  </si>
-  <si>
-    <t>PR-1(2)</t>
-  </si>
-  <si>
     <t>GI(8)</t>
   </si>
   <si>
     <t>SWITCHES</t>
+  </si>
+  <si>
+    <t>NO VA</t>
+  </si>
+  <si>
+    <t>AL(10)</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>C2(8)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>B1LT-SA10</t>
+  </si>
+  <si>
+    <t>B1LT-SA11</t>
+  </si>
+  <si>
+    <t>B1LT-SA12</t>
+  </si>
+  <si>
+    <t>B2LT-SA13</t>
+  </si>
+  <si>
+    <t>B2LT-SA14</t>
+  </si>
+  <si>
+    <t>B2LT-SA15</t>
+  </si>
+  <si>
+    <t>B2LT-SA16</t>
+  </si>
+  <si>
+    <t>B2LT-SA17</t>
+  </si>
+  <si>
+    <t>B2LT-SA18</t>
+  </si>
+  <si>
+    <t>B3LT-SA27</t>
+  </si>
+  <si>
+    <t>B3LT-SA28</t>
+  </si>
+  <si>
+    <t>B3LT-SA29</t>
+  </si>
+  <si>
+    <t>B3LT-SA30</t>
+  </si>
+  <si>
+    <t>B4LT-SA31</t>
+  </si>
+  <si>
+    <t>B4LT-SA32</t>
+  </si>
+  <si>
+    <t>B4LT-SA33</t>
+  </si>
+  <si>
+    <t>B4LT-SA34</t>
+  </si>
+  <si>
+    <t>LT(8)</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>PR(2)</t>
+  </si>
+  <si>
+    <t>PR</t>
   </si>
 </sst>
 </file>
@@ -6271,8 +6322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6299,7 +6350,7 @@
         <v>566</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6316,7 +6367,7 @@
         <v>568</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6418,7 +6469,7 @@
         <v>568</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6435,7 +6486,7 @@
         <v>568</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6452,7 +6503,7 @@
         <v>568</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6460,7 +6511,7 @@
         <v>463</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>569</v>
@@ -6469,7 +6520,7 @@
         <v>569</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6477,7 +6528,7 @@
         <v>464</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>489</v>
+        <v>581</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>569</v>
@@ -6486,7 +6537,7 @@
         <v>569</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6494,7 +6545,7 @@
         <v>465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>490</v>
+        <v>582</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>569</v>
@@ -6503,7 +6554,7 @@
         <v>569</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6511,7 +6562,7 @@
         <v>462</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>568</v>
@@ -6520,7 +6571,7 @@
         <v>568</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6528,7 +6579,7 @@
         <v>461</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>568</v>
@@ -6537,7 +6588,7 @@
         <v>568</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6545,7 +6596,7 @@
         <v>460</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>568</v>
@@ -6554,7 +6605,7 @@
         <v>568</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6562,7 +6613,7 @@
         <v>452</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>568</v>
@@ -6571,7 +6622,7 @@
         <v>568</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6579,7 +6630,7 @@
         <v>459</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>568</v>
@@ -6588,7 +6639,7 @@
         <v>568</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6596,7 +6647,7 @@
         <v>453</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>496</v>
+        <v>588</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>568</v>
@@ -6605,7 +6656,7 @@
         <v>568</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6622,7 +6673,7 @@
         <v>569</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6690,7 +6741,7 @@
         <v>569</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6707,7 +6758,7 @@
         <v>569</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6724,7 +6775,7 @@
         <v>569</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6741,7 +6792,7 @@
         <v>568</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6749,7 +6800,7 @@
         <v>474</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>568</v>
@@ -6766,7 +6817,7 @@
         <v>475</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>568</v>
@@ -6783,7 +6834,7 @@
         <v>478</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>568</v>
@@ -6800,7 +6851,7 @@
         <v>476</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>568</v>
@@ -6817,7 +6868,7 @@
         <v>477</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>569</v>
@@ -6826,7 +6877,7 @@
         <v>569</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6834,7 +6885,7 @@
         <v>385</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>569</v>
@@ -6843,7 +6894,7 @@
         <v>569</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6851,7 +6902,7 @@
         <v>386</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>569</v>
@@ -6860,7 +6911,7 @@
         <v>569</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6868,7 +6919,7 @@
         <v>470</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>568</v>
@@ -6877,7 +6928,7 @@
         <v>568</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6894,7 +6945,7 @@
         <v>569</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6911,7 +6962,7 @@
         <v>569</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6928,7 +6979,7 @@
         <v>569</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6945,7 +6996,7 @@
         <v>569</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6962,7 +7013,7 @@
         <v>569</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6979,7 +7030,7 @@
         <v>569</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6996,7 +7047,7 @@
         <v>569</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -7013,7 +7064,7 @@
         <v>569</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -7030,7 +7081,7 @@
         <v>569</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7047,7 +7098,7 @@
         <v>569</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
